--- a/data/league_data/france/19/france_possession.xlsx
+++ b/data/league_data/france/19/france_possession.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A1A133-1A27-2B4F-AABD-9C652694541F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154D9DC-80D9-FD40-B45C-8E0A41F2FE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,9 +898,6 @@
     <t>Fouad Chafik</t>
   </si>
   <si>
-    <t>Manu García</t>
-  </si>
-  <si>
     <t>Rony Lopes</t>
   </si>
   <si>
@@ -1291,9 +1288,6 @@
     <t>Jean-Victor Makengo</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -1868,6 +1862,12 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
+  </si>
+  <si>
+    <t>Manu García Alonso</t>
   </si>
 </sst>
 </file>
@@ -2737,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8454,7 +8454,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>74</v>
@@ -21576,7 +21576,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>292</v>
+        <v>615</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>269</v>
@@ -21674,7 +21674,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>71</v>
@@ -21772,7 +21772,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>269</v>
@@ -21870,7 +21870,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>35</v>
@@ -21968,10 +21968,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D197" s="4" t="s">
         <v>59</v>
@@ -22066,7 +22066,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>255</v>
@@ -22164,7 +22164,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>58</v>
@@ -22262,7 +22262,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>35</v>
@@ -22360,7 +22360,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>35</v>
@@ -22458,7 +22458,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>35</v>
@@ -22556,7 +22556,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>35</v>
@@ -22654,7 +22654,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>43</v>
@@ -22752,7 +22752,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>276</v>
@@ -22850,7 +22850,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>35</v>
@@ -22948,7 +22948,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>35</v>
@@ -23046,7 +23046,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>119</v>
@@ -23144,7 +23144,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>35</v>
@@ -23242,7 +23242,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>35</v>
@@ -23340,7 +23340,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>35</v>
@@ -23438,10 +23438,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>32</v>
@@ -23536,7 +23536,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>119</v>
@@ -23634,7 +23634,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>55</v>
@@ -23732,10 +23732,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C215" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>87</v>
@@ -23830,7 +23830,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>35</v>
@@ -23928,10 +23928,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C217" s="4" t="s">
         <v>319</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>320</v>
       </c>
       <c r="D217" s="4" t="s">
         <v>62</v>
@@ -24026,10 +24026,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>107</v>
@@ -24124,7 +24124,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>35</v>
@@ -24222,7 +24222,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>74</v>
@@ -24320,7 +24320,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>212</v>
@@ -24418,7 +24418,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>55</v>
@@ -24516,7 +24516,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>119</v>
@@ -24614,7 +24614,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>35</v>
@@ -24712,7 +24712,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>43</v>
@@ -24810,7 +24810,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>43</v>
@@ -24908,7 +24908,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>35</v>
@@ -25006,7 +25006,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>35</v>
@@ -25104,7 +25104,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>35</v>
@@ -25202,7 +25202,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>74</v>
@@ -25300,10 +25300,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C231" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>32</v>
@@ -25396,7 +25396,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>35</v>
@@ -25494,10 +25494,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>87</v>
@@ -25592,7 +25592,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>286</v>
@@ -25690,7 +25690,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>117</v>
@@ -25786,7 +25786,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>119</v>
@@ -25884,10 +25884,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>87</v>
@@ -25982,7 +25982,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>35</v>
@@ -26080,7 +26080,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>35</v>
@@ -26178,7 +26178,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>74</v>
@@ -26276,10 +26276,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C241" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>32</v>
@@ -26374,7 +26374,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>43</v>
@@ -26472,7 +26472,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>35</v>
@@ -26570,7 +26570,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>35</v>
@@ -26668,7 +26668,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>58</v>
@@ -26766,7 +26766,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>35</v>
@@ -26864,7 +26864,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>55</v>
@@ -26962,7 +26962,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>74</v>
@@ -27060,7 +27060,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>128</v>
@@ -27158,7 +27158,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>35</v>
@@ -27254,7 +27254,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>74</v>
@@ -27352,7 +27352,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>35</v>
@@ -27450,7 +27450,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>71</v>
@@ -27548,7 +27548,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>101</v>
@@ -27646,7 +27646,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>83</v>
@@ -27744,7 +27744,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>125</v>
@@ -27842,7 +27842,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>90</v>
@@ -27940,7 +27940,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>35</v>
@@ -28038,7 +28038,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>123</v>
@@ -28136,10 +28136,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>62</v>
@@ -28234,7 +28234,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>35</v>
@@ -28332,7 +28332,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>74</v>
@@ -28430,7 +28430,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>58</v>
@@ -28528,10 +28528,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C264" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>62</v>
@@ -28626,7 +28626,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>71</v>
@@ -28724,7 +28724,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>35</v>
@@ -28822,7 +28822,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>58</v>
@@ -28920,7 +28920,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>74</v>
@@ -29018,7 +29018,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>35</v>
@@ -29116,10 +29116,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C270" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>87</v>
@@ -29214,7 +29214,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>35</v>
@@ -29312,7 +29312,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>35</v>
@@ -29410,7 +29410,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>35</v>
@@ -29508,7 +29508,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>153</v>
@@ -29606,7 +29606,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>35</v>
@@ -29704,7 +29704,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>31</v>
@@ -29802,7 +29802,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>83</v>
@@ -29900,7 +29900,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>35</v>
@@ -29998,7 +29998,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>35</v>
@@ -30096,7 +30096,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>111</v>
@@ -30194,7 +30194,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>55</v>
@@ -30292,7 +30292,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>35</v>
@@ -30390,7 +30390,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>123</v>
@@ -30488,7 +30488,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>86</v>
@@ -30586,7 +30586,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>35</v>
@@ -30684,7 +30684,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>35</v>
@@ -30782,7 +30782,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>71</v>
@@ -30880,10 +30880,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>397</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>87</v>
@@ -30978,7 +30978,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>55</v>
@@ -31076,7 +31076,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>35</v>
@@ -31172,7 +31172,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>119</v>
@@ -31270,7 +31270,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>35</v>
@@ -31368,7 +31368,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>35</v>
@@ -31466,10 +31466,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>36</v>
@@ -31562,7 +31562,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>264</v>
@@ -31660,7 +31660,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>35</v>
@@ -31758,7 +31758,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>35</v>
@@ -31856,7 +31856,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>35</v>
@@ -31954,7 +31954,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>58</v>
@@ -32052,7 +32052,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>31</v>
@@ -32150,7 +32150,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>35</v>
@@ -32248,7 +32248,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>74</v>
@@ -32346,7 +32346,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>35</v>
@@ -32444,10 +32444,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>32</v>
@@ -32542,7 +32542,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>35</v>
@@ -32640,7 +32640,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>31</v>
@@ -32738,10 +32738,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D307" s="4" t="s">
         <v>62</v>
@@ -32836,7 +32836,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>35</v>
@@ -32934,7 +32934,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>190</v>
@@ -33032,7 +33032,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>153</v>
@@ -33130,7 +33130,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>123</v>
@@ -33228,7 +33228,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>35</v>
@@ -33326,7 +33326,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>423</v>
+        <v>614</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>74</v>
@@ -33424,7 +33424,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>74</v>
@@ -33522,7 +33522,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>35</v>
@@ -33620,10 +33620,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>62</v>
@@ -33718,7 +33718,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>35</v>
@@ -33816,7 +33816,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>269</v>
@@ -33914,7 +33914,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>150</v>
@@ -34012,7 +34012,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>35</v>
@@ -34110,7 +34110,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>35</v>
@@ -34208,7 +34208,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>31</v>
@@ -34306,7 +34306,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>286</v>
@@ -34404,10 +34404,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>59</v>
@@ -34502,7 +34502,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>35</v>
@@ -34598,7 +34598,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>31</v>
@@ -34696,7 +34696,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>58</v>
@@ -34794,7 +34794,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>35</v>
@@ -34892,7 +34892,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>35</v>
@@ -34990,7 +34990,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>35</v>
@@ -35088,7 +35088,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>35</v>
@@ -35186,7 +35186,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>74</v>
@@ -35284,7 +35284,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>35</v>
@@ -35382,7 +35382,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>35</v>
@@ -35480,7 +35480,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>35</v>
@@ -35578,7 +35578,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>35</v>
@@ -35676,7 +35676,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>35</v>
@@ -35774,7 +35774,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>35</v>
@@ -35872,7 +35872,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>90</v>
@@ -35970,10 +35970,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>59</v>
@@ -36068,7 +36068,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>123</v>
@@ -36166,7 +36166,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>71</v>
@@ -36264,10 +36264,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>87</v>
@@ -36362,10 +36362,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>87</v>
@@ -36460,7 +36460,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>35</v>
@@ -36558,7 +36558,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>74</v>
@@ -36656,7 +36656,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>58</v>
@@ -36754,7 +36754,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>71</v>
@@ -36852,10 +36852,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>87</v>
@@ -36950,7 +36950,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>35</v>
@@ -37048,7 +37048,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>286</v>
@@ -37146,7 +37146,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>43</v>
@@ -37244,7 +37244,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>168</v>
@@ -37342,7 +37342,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>35</v>
@@ -37440,7 +37440,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>43</v>
@@ -37538,10 +37538,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>32</v>
@@ -37636,7 +37636,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>55</v>
@@ -37734,7 +37734,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>74</v>
@@ -37832,7 +37832,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>35</v>
@@ -37930,10 +37930,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D360" s="4" t="s">
         <v>32</v>
@@ -38028,10 +38028,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>36</v>
@@ -38124,7 +38124,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>117</v>
@@ -38222,7 +38222,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>35</v>
@@ -38320,7 +38320,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>35</v>
@@ -38418,7 +38418,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>35</v>
@@ -38516,7 +38516,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>55</v>
@@ -38614,7 +38614,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>35</v>
@@ -38710,7 +38710,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>101</v>
@@ -38808,7 +38808,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>35</v>
@@ -38906,7 +38906,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>176</v>
@@ -39004,7 +39004,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>35</v>
@@ -39102,7 +39102,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>71</v>
@@ -39200,7 +39200,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>35</v>
@@ -39298,7 +39298,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>119</v>
@@ -39396,7 +39396,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>35</v>
@@ -39494,10 +39494,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>87</v>
@@ -39592,7 +39592,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>58</v>
@@ -39690,7 +39690,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>101</v>
@@ -39788,7 +39788,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>286</v>
@@ -39886,10 +39886,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>87</v>
@@ -39984,10 +39984,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>32</v>
@@ -40082,10 +40082,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>59</v>
@@ -40180,7 +40180,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>35</v>
@@ -40278,10 +40278,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D384" s="4" t="s">
         <v>32</v>
@@ -40376,7 +40376,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>31</v>
@@ -40474,7 +40474,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>35</v>
@@ -40572,7 +40572,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>35</v>
@@ -40670,7 +40670,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>74</v>
@@ -40768,7 +40768,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>74</v>
@@ -40866,7 +40866,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>43</v>
@@ -40964,7 +40964,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>43</v>
@@ -41062,7 +41062,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>43</v>
@@ -41158,7 +41158,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>35</v>
@@ -41256,7 +41256,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>35</v>
@@ -41354,7 +41354,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>286</v>
@@ -41452,7 +41452,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>35</v>
@@ -41550,7 +41550,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>35</v>
@@ -41648,10 +41648,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C398" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>87</v>
@@ -41746,10 +41746,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>59</v>
@@ -41844,10 +41844,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C400" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D400" s="4" t="s">
         <v>62</v>
@@ -41942,7 +41942,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>35</v>
@@ -42040,7 +42040,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>43</v>
@@ -42136,7 +42136,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>176</v>
@@ -42234,7 +42234,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>43</v>
@@ -42332,7 +42332,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>114</v>
@@ -42430,7 +42430,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>123</v>
@@ -42526,7 +42526,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>35</v>
@@ -42624,7 +42624,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>35</v>
@@ -42722,7 +42722,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>35</v>
@@ -42820,10 +42820,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>95</v>
@@ -42918,7 +42918,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>35</v>
@@ -43016,7 +43016,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>119</v>
@@ -43114,7 +43114,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>55</v>
@@ -43212,7 +43212,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>83</v>
@@ -43310,10 +43310,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>107</v>
@@ -43408,7 +43408,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>269</v>
@@ -43506,7 +43506,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>35</v>
@@ -43604,10 +43604,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>32</v>
@@ -43702,7 +43702,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>35</v>
@@ -43798,7 +43798,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>45</v>
@@ -43896,7 +43896,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>123</v>
@@ -43994,7 +43994,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>35</v>
@@ -44092,7 +44092,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>35</v>
@@ -44190,7 +44190,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>119</v>
@@ -44288,7 +44288,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>35</v>
@@ -44386,7 +44386,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>86</v>
@@ -44484,7 +44484,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>101</v>
@@ -44582,10 +44582,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>95</v>
@@ -44680,7 +44680,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>74</v>
@@ -44776,7 +44776,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>43</v>
@@ -44874,7 +44874,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>269</v>
@@ -44972,7 +44972,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>35</v>
@@ -45070,7 +45070,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>35</v>
@@ -45166,7 +45166,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>35</v>
@@ -45264,7 +45264,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>35</v>
@@ -45362,7 +45362,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>276</v>
@@ -45460,7 +45460,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>71</v>
@@ -45558,7 +45558,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>114</v>
@@ -45656,7 +45656,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>119</v>
@@ -45754,7 +45754,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>35</v>
@@ -45852,7 +45852,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>176</v>
@@ -45950,7 +45950,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>276</v>
@@ -46048,7 +46048,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>43</v>
@@ -46144,7 +46144,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>35</v>
@@ -46242,7 +46242,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>43</v>
@@ -46340,7 +46340,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>35</v>
@@ -46438,7 +46438,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>35</v>
@@ -46536,7 +46536,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>35</v>
@@ -46634,7 +46634,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>35</v>
@@ -46732,7 +46732,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>35</v>
@@ -46830,10 +46830,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D451" s="4" t="s">
         <v>59</v>
@@ -46928,7 +46928,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>35</v>
@@ -47024,7 +47024,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>35</v>
@@ -47122,7 +47122,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>35</v>
@@ -47220,7 +47220,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>35</v>
@@ -47316,7 +47316,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>86</v>
@@ -47412,7 +47412,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>35</v>
@@ -47508,7 +47508,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>35</v>
@@ -47604,7 +47604,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>35</v>
@@ -47702,7 +47702,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>43</v>
@@ -47798,7 +47798,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>35</v>
@@ -47894,7 +47894,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>35</v>
@@ -47990,7 +47990,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>86</v>
@@ -48088,7 +48088,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>35</v>
@@ -48186,7 +48186,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>35</v>
@@ -48284,7 +48284,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>35</v>
@@ -48382,7 +48382,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>35</v>
@@ -48478,10 +48478,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>87</v>
@@ -48576,7 +48576,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>43</v>
@@ -48674,7 +48674,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>43</v>
@@ -48772,7 +48772,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>142</v>
@@ -48868,7 +48868,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>35</v>
@@ -48966,10 +48966,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>32</v>
@@ -49064,7 +49064,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>35</v>
@@ -49162,7 +49162,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>35</v>
@@ -49358,10 +49358,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>62</v>
@@ -49456,7 +49456,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>35</v>
@@ -49552,7 +49552,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>35</v>
@@ -49648,7 +49648,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>35</v>
@@ -49746,7 +49746,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>196</v>
@@ -49844,7 +49844,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>35</v>
@@ -49940,7 +49940,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>35</v>
@@ -50036,7 +50036,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>35</v>
@@ -50132,7 +50132,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>58</v>
@@ -50228,7 +50228,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>276</v>
@@ -50326,7 +50326,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>35</v>
@@ -50424,7 +50424,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>101</v>
@@ -50522,7 +50522,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>212</v>
@@ -50716,7 +50716,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>117</v>
@@ -50812,7 +50812,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>35</v>
@@ -50908,7 +50908,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>35</v>
@@ -51006,7 +51006,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>35</v>
@@ -51104,7 +51104,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>35</v>
@@ -51200,7 +51200,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>35</v>
@@ -51298,7 +51298,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>45</v>
@@ -51396,7 +51396,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>35</v>
@@ -51492,7 +51492,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>35</v>
@@ -51588,10 +51588,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>32</v>
